--- a/Day1-基本数据类型内存管理和字符串/C++内存管理图.xlsx
+++ b/Day1-基本数据类型内存管理和字符串/C++内存管理图.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20080" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="60" windowWidth="20080" windowHeight="14620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="函数参数传递" sheetId="1" r:id="rId1"/>
     <sheet name="内存管理图" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、strcpy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、把 china 放入 ss 内存块中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、完成后，还是有两块内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>str1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +433,46 @@
   </si>
   <si>
     <t>char str1[] = “abc”;</t>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcat(ss," china");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +506,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +567,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -522,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -548,6 +627,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="B4:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B3" zoomScale="200" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B3" zoomScale="200" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -887,44 +969,44 @@
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -957,7 +1039,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -980,7 +1062,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -989,7 +1071,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -998,7 +1080,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1007,7 +1089,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1016,7 +1098,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1032,7 +1114,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1041,7 +1123,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1050,24 +1132,24 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1078,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1097,35 +1179,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1135,19 +1217,19 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -1161,15 +1243,15 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="9">
         <v>362537</v>
@@ -1177,15 +1259,15 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" s="9">
         <v>362538</v>
@@ -1193,7 +1275,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -1203,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" s="9">
         <v>362539</v>
@@ -1213,7 +1295,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
@@ -1221,31 +1303,31 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
         <v>362537</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -1253,19 +1335,19 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>362537</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1275,16 +1357,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1293,23 +1375,23 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -1319,7 +1401,7 @@
         <v>223344</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -1333,7 +1415,7 @@
         <v>223345</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
@@ -1347,7 +1429,7 @@
         <v>223346</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
@@ -1361,7 +1443,7 @@
         <v>223347</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -1387,37 +1469,37 @@
     </row>
     <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1426,7 +1508,7 @@
     <row r="28" spans="1:6">
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1450,7 +1532,7 @@
         <v>23401</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -1487,19 +1569,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1517,7 +1599,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -1535,11 +1617,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="3"/>
@@ -1547,7 +1629,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1557,7 +1639,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1575,7 +1657,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>223345</v>
@@ -1648,6 +1730,236 @@
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
